--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/38.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/38.xlsx
@@ -479,13 +479,13 @@
         <v>-10.26266206512152</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.61397718263284</v>
+        <v>-17.6375959748069</v>
       </c>
       <c r="F2" t="n">
-        <v>3.715918868535972</v>
+        <v>3.814373688821906</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.412223263758122</v>
+        <v>-9.499272031023542</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.450541261593887</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.24942585016011</v>
+        <v>-18.28970148872975</v>
       </c>
       <c r="F3" t="n">
-        <v>3.6107905538767</v>
+        <v>3.728723177520422</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.248392643647803</v>
+        <v>-9.321791303740797</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.62110389120279</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.66306516514231</v>
+        <v>-18.70431371607847</v>
       </c>
       <c r="F4" t="n">
-        <v>3.844851757630253</v>
+        <v>3.954526848675756</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.204528474037842</v>
+        <v>-9.27708133594286</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.88771225441964</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.47602389399353</v>
+        <v>-19.53538132636475</v>
       </c>
       <c r="F5" t="n">
-        <v>4.088436746760557</v>
+        <v>4.202018154292725</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.119332640374981</v>
+        <v>-9.170857883745398</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.24355301737658</v>
       </c>
       <c r="E6" t="n">
-        <v>-20.03974105276943</v>
+        <v>-20.11523220780146</v>
       </c>
       <c r="F6" t="n">
-        <v>4.16071093527416</v>
+        <v>4.292122550849967</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.508597902559966</v>
+        <v>-8.561003167166428</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.71682230263803</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.72710608421647</v>
+        <v>-20.81360728271279</v>
       </c>
       <c r="F7" t="n">
-        <v>4.30360682798035</v>
+        <v>4.436167360169883</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.34569619375436</v>
+        <v>-8.401650877346201</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.308743455015986</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.26031095113595</v>
+        <v>-21.34574145712842</v>
       </c>
       <c r="F8" t="n">
-        <v>4.455840723802348</v>
+        <v>4.557967188245335</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.993751256425754</v>
+        <v>-8.045662731338657</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.026237619101355</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.73979541060176</v>
+        <v>-21.83276476518301</v>
       </c>
       <c r="F9" t="n">
-        <v>4.57797300434475</v>
+        <v>4.674922010515674</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.337404438108072</v>
+        <v>-8.375074236017651</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.862573644267218</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.41358855898624</v>
+        <v>-22.52510191661371</v>
       </c>
       <c r="F10" t="n">
-        <v>4.964028542583822</v>
+        <v>5.060913991665476</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.095574602442991</v>
+        <v>-8.1417072712392</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.804831150949938</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.26447131410412</v>
+        <v>-23.38202259521223</v>
       </c>
       <c r="F11" t="n">
-        <v>5.129800098420308</v>
+        <v>5.221943210841054</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.660379656184557</v>
+        <v>-7.687640758474475</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.837340809356745</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.04101671981056</v>
+        <v>-24.15746797437361</v>
       </c>
       <c r="F12" t="n">
-        <v>5.462003226020311</v>
+        <v>5.542921178674621</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.09359220109624</v>
+        <v>-7.119445269408486</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.932532076451834</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.59014508209558</v>
+        <v>-24.68983682111884</v>
       </c>
       <c r="F13" t="n">
-        <v>6.238221068266664</v>
+        <v>6.320806172262591</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.833120582247613</v>
+        <v>-6.858039850248279</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.069271813270317</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.7733287449508</v>
+        <v>-25.86561852757755</v>
       </c>
       <c r="F14" t="n">
-        <v>6.374575469784922</v>
+        <v>6.455566757542235</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.337810407553593</v>
+        <v>-6.360690959690754</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.216994686595092</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.14395457751788</v>
+        <v>-26.23318873085282</v>
       </c>
       <c r="F15" t="n">
-        <v>6.617656891207933</v>
+        <v>6.683487368670943</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.827960326437367</v>
+        <v>-5.869780891176958</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.354234490131473</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.18618083888965</v>
+        <v>-27.23085902814295</v>
       </c>
       <c r="F16" t="n">
-        <v>6.87163101993043</v>
+        <v>6.924085174605561</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.59335155391472</v>
+        <v>-5.634922779304097</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.458480011177185</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.03508354622642</v>
+        <v>-28.07053617952186</v>
       </c>
       <c r="F17" t="n">
-        <v>7.203946594688373</v>
+        <v>7.251413962359251</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.150031078243472</v>
+        <v>-5.196603757657704</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.518391831850746</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.59122763336547</v>
+        <v>-28.6258906920519</v>
       </c>
       <c r="F18" t="n">
-        <v>7.59197729170168</v>
+        <v>7.618113922412206</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.005262695907255</v>
+        <v>-5.05323852029229</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.526979526678868</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.52224365553552</v>
+        <v>-29.55381686188205</v>
       </c>
       <c r="F19" t="n">
-        <v>7.699809227158355</v>
+        <v>7.738134151988102</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.879414770145996</v>
+        <v>-4.955565941105064</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.488926273081201</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.97986203178905</v>
+        <v>-29.99044184264906</v>
       </c>
       <c r="F20" t="n">
-        <v>7.880575367055669</v>
+        <v>7.924938215366055</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.695910786403211</v>
+        <v>-4.762210608525445</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.409953035568247</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.83048811404642</v>
+        <v>-30.82965942738248</v>
       </c>
       <c r="F21" t="n">
-        <v>8.197783910594845</v>
+        <v>8.228281535430659</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.60944869996182</v>
+        <v>-4.683957164613604</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.304783938909894</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.99348026947906</v>
+        <v>-30.99939596778803</v>
       </c>
       <c r="F22" t="n">
-        <v>8.226536159979171</v>
+        <v>8.279870335890346</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.824535668064876</v>
+        <v>-4.910689747073651</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.187209138863297</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.47904420898389</v>
+        <v>-31.4818651659461</v>
       </c>
       <c r="F23" t="n">
-        <v>8.260240973319682</v>
+        <v>8.314416058411968</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.629840747603722</v>
+        <v>-4.726110181820144</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.076638393503184</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.49854890187945</v>
+        <v>-31.50017938566956</v>
       </c>
       <c r="F24" t="n">
-        <v>8.641676400069521</v>
+        <v>8.695993266360945</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.821250255450309</v>
+        <v>-4.9149236270204</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.989704742883615</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.58200913810455</v>
+        <v>-31.57624988801533</v>
       </c>
       <c r="F25" t="n">
-        <v>8.586411066445914</v>
+        <v>8.64929836177504</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.643754861146962</v>
+        <v>-4.734612164761709</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.940783338996811</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.50968117051541</v>
+        <v>-31.52145389905094</v>
       </c>
       <c r="F26" t="n">
-        <v>8.211160233382724</v>
+        <v>8.287531409650802</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.667921222090123</v>
+        <v>-4.755742452440516</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.941588238690998</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.62177631996004</v>
+        <v>-31.62351436190123</v>
       </c>
       <c r="F27" t="n">
-        <v>8.424560494116694</v>
+        <v>8.512288833336616</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.449187054864348</v>
+        <v>-4.534025991025923</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.994425364181613</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.33656388186139</v>
+        <v>-31.34620989240981</v>
       </c>
       <c r="F28" t="n">
-        <v>8.402115063590688</v>
+        <v>8.49813026945003</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.671407083986233</v>
+        <v>-4.768522316390632</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.098769512797258</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.0775198530179</v>
+        <v>-31.08182706806765</v>
       </c>
       <c r="F29" t="n">
-        <v>8.250932304245076</v>
+        <v>8.35943403364252</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.568478822417073</v>
+        <v>-4.688802170418716</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.242490316438103</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.36413054708049</v>
+        <v>-31.38153296702327</v>
       </c>
       <c r="F30" t="n">
-        <v>7.866055016660932</v>
+        <v>7.967888140691903</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.825137015909506</v>
+        <v>-4.94454123062017</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.410771124101464</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.08832700269721</v>
+        <v>-31.11345160898629</v>
       </c>
       <c r="F31" t="n">
-        <v>7.922019478266507</v>
+        <v>8.01911026563657</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.765936031758033</v>
+        <v>-4.881981498751127</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.579855997328368</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.87054130280362</v>
+        <v>-30.88260003824087</v>
       </c>
       <c r="F32" t="n">
-        <v>7.806355353809033</v>
+        <v>7.909645401886345</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.956788192821793</v>
+        <v>-5.074647481362511</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.726366095666147</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.36656536343799</v>
+        <v>-30.40022373121327</v>
       </c>
       <c r="F33" t="n">
-        <v>7.864451422408584</v>
+        <v>7.984676990272889</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.85053540658313</v>
+        <v>-5.000437246129609</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.825215554654603</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.00093609588889</v>
+        <v>-30.04234353954823</v>
       </c>
       <c r="F34" t="n">
-        <v>7.858780174442962</v>
+        <v>7.955274502975263</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.927698601963648</v>
+        <v>-5.093802610267084</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.857150398012227</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.75618752312426</v>
+        <v>-29.80193884938485</v>
       </c>
       <c r="F35" t="n">
-        <v>7.962197336698813</v>
+        <v>8.074742274775195</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.838024438010694</v>
+        <v>-4.988297842079059</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.805711634744315</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.41747712738439</v>
+        <v>-29.45147039213006</v>
       </c>
       <c r="F36" t="n">
-        <v>8.053851548432869</v>
+        <v>8.158862526927335</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.01192641226686</v>
+        <v>-5.188541785334162</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.662673676227526</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.31303816269336</v>
+        <v>-29.36190134182474</v>
       </c>
       <c r="F37" t="n">
-        <v>8.217677279536321</v>
+        <v>8.345221690680399</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.062581412414965</v>
+        <v>-5.232782408472875</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.428324331312552</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.67998755303431</v>
+        <v>-28.73678559031069</v>
       </c>
       <c r="F38" t="n">
-        <v>7.970875323887587</v>
+        <v>8.082202899254108</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.046183683383332</v>
+        <v>-5.209168505305676</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.109522525478988</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.3738892776002</v>
+        <v>-28.42389892884187</v>
       </c>
       <c r="F39" t="n">
-        <v>7.852810697058459</v>
+        <v>7.964915624516818</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.156616570493207</v>
+        <v>-5.321644997285921</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.725070031973025</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.93210883909203</v>
+        <v>-27.99172783333062</v>
       </c>
       <c r="F40" t="n">
-        <v>7.890094263425552</v>
+        <v>8.007141976826363</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.991827705036972</v>
+        <v>-5.161867363868274</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.29646442119218</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.70948546690362</v>
+        <v>-27.76359699490664</v>
       </c>
       <c r="F41" t="n">
-        <v>7.664114588023009</v>
+        <v>7.774527919105417</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.511915366532517</v>
+        <v>-5.678850506003328</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.855340138000813</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.06504836025153</v>
+        <v>-27.10269615763021</v>
       </c>
       <c r="F42" t="n">
-        <v>7.568881623262373</v>
+        <v>7.686393792315541</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.231193481241128</v>
+        <v>-5.390594661130023</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.427032821751465</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.72329211323357</v>
+        <v>-26.76742028921435</v>
       </c>
       <c r="F43" t="n">
-        <v>7.583964209446806</v>
+        <v>7.705289803856167</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.343396188836826</v>
+        <v>-5.518701308063795</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.041160015473314</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.14970404959338</v>
+        <v>-26.19888256966768</v>
       </c>
       <c r="F44" t="n">
-        <v>7.677300239543078</v>
+        <v>7.805015765927498</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.439660734046381</v>
+        <v>-5.609089267019319</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.718263900599133</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.4550006188391</v>
+        <v>-25.51245622753908</v>
       </c>
       <c r="F45" t="n">
-        <v>7.740246202954609</v>
+        <v>7.868978642767346</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.49346425461678</v>
+        <v>-5.659612263982018</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.477064905298839</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.13631559522612</v>
+        <v>-25.18581190074676</v>
       </c>
       <c r="F46" t="n">
-        <v>7.570949673167078</v>
+        <v>7.690187661644266</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.377770796118105</v>
+        <v>-5.54477927069192</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.324896246246774</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.92750611194018</v>
+        <v>-24.97443079984883</v>
       </c>
       <c r="F47" t="n">
-        <v>7.674440170525934</v>
+        <v>7.784853501608341</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.269034394391049</v>
+        <v>-5.422158089462825</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.263954096846163</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.50830799615029</v>
+        <v>-24.54992811160834</v>
       </c>
       <c r="F48" t="n">
-        <v>7.650132028383632</v>
+        <v>7.759743562339866</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.214869087312499</v>
+        <v>-5.373326688876079</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.286189555803635</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.71045629851784</v>
+        <v>-23.76253399966422</v>
       </c>
       <c r="F49" t="n">
-        <v>7.932941519607195</v>
+        <v>8.04877675930501</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.331999913830047</v>
+        <v>-5.466887613288231</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.379710990997174</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.65740079599808</v>
+        <v>-23.69944625505354</v>
       </c>
       <c r="F50" t="n">
-        <v>7.662403435619589</v>
+        <v>7.772753209612726</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.353164424556922</v>
+        <v>-5.476631403973992</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.525516409971548</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.98553391631916</v>
+        <v>-23.0278042696905</v>
       </c>
       <c r="F51" t="n">
-        <v>7.741585790836144</v>
+        <v>7.827089631931619</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.168672861427019</v>
+        <v>-5.300798272005395</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.704547268887404</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.47276020909652</v>
+        <v>-22.51794929956741</v>
       </c>
       <c r="F52" t="n">
-        <v>7.579715662479456</v>
+        <v>7.673692152475295</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.370143945405718</v>
+        <v>-5.497189677849369</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.895738188291259</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.12679941617301</v>
+        <v>-22.16874709509115</v>
       </c>
       <c r="F53" t="n">
-        <v>7.952174872621638</v>
+        <v>8.029895414784985</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.298784001176227</v>
+        <v>-5.409241333320437</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.080633439750969</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.35735284843734</v>
+        <v>-21.39424529425508</v>
       </c>
       <c r="F54" t="n">
-        <v>7.900898968601434</v>
+        <v>7.976047893152784</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.311070075432784</v>
+        <v>-5.431838323059317</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.245701115229058</v>
       </c>
       <c r="E55" t="n">
-        <v>-21.08730855414329</v>
+        <v>-21.1223138433104</v>
       </c>
       <c r="F55" t="n">
-        <v>7.693096620730081</v>
+        <v>7.752825617623181</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.468344537334571</v>
+        <v>-5.561969018835993</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.381373460871798</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.58439597377122</v>
+        <v>-20.60907079142854</v>
       </c>
       <c r="F56" t="n">
-        <v>7.579842776657997</v>
+        <v>7.660980734621317</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.499531512138621</v>
+        <v>-5.59913524903828</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.485295151007686</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.30319496580687</v>
+        <v>-20.31970025298958</v>
       </c>
       <c r="F57" t="n">
-        <v>7.492285552678417</v>
+        <v>7.56107387929591</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.752258944110056</v>
+        <v>-5.835220501634736</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.558080400540036</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.81946684838057</v>
+        <v>-19.82713281114789</v>
       </c>
       <c r="F58" t="n">
-        <v>7.124500233101005</v>
+        <v>7.193102777457557</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.034579534646927</v>
+        <v>-6.125202165932062</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.60582816436108</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.30150590487214</v>
+        <v>-19.33572406393368</v>
       </c>
       <c r="F59" t="n">
-        <v>7.458458514166232</v>
+        <v>7.551334977617016</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.919326086766274</v>
+        <v>-6.018851599556061</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.63492840235272</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.89013508907618</v>
+        <v>-18.93245922152306</v>
       </c>
       <c r="F60" t="n">
-        <v>7.307256198793153</v>
+        <v>7.390599098853452</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.183503572820022</v>
+        <v>-6.28892522789131</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.653721542089591</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.59745469298831</v>
+        <v>-18.63353556366615</v>
       </c>
       <c r="F61" t="n">
-        <v>7.015886056545623</v>
+        <v>7.107012255538051</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.263473058142151</v>
+        <v>-6.374746854433135</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.666572993395899</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.23885092830697</v>
+        <v>-18.28760410478385</v>
       </c>
       <c r="F62" t="n">
-        <v>7.154753407593476</v>
+        <v>7.251570410578992</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.264196631158454</v>
+        <v>-6.360984300102769</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.678025258362954</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.66988786516288</v>
+        <v>-17.72980264431692</v>
       </c>
       <c r="F63" t="n">
-        <v>6.990433886796464</v>
+        <v>7.08782290358541</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.153323733430557</v>
+        <v>-6.25472662485724</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.686759302641697</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.68799185759106</v>
+        <v>-17.72585232676845</v>
       </c>
       <c r="F64" t="n">
-        <v>6.796662988633157</v>
+        <v>6.880783240785296</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.305127396648266</v>
+        <v>-6.420390622542653</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.692135822233864</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.45811564371559</v>
+        <v>-17.51031068102677</v>
       </c>
       <c r="F65" t="n">
-        <v>6.981042104605121</v>
+        <v>7.073639894664489</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.275490237021027</v>
+        <v>-6.396517602011508</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.689683002724406</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.41057494094171</v>
+        <v>-17.45450266764094</v>
       </c>
       <c r="F66" t="n">
-        <v>6.900187709040081</v>
+        <v>6.997723396035034</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.315149860725442</v>
+        <v>-6.411380182886928</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.676260934202991</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.28447278682337</v>
+        <v>-17.3480836551688</v>
       </c>
       <c r="F67" t="n">
-        <v>6.742131006039588</v>
+        <v>6.83795554063112</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.378007822013367</v>
+        <v>-6.487003341104369</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.648809283689711</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.93712351594966</v>
+        <v>-16.99265285594408</v>
       </c>
       <c r="F68" t="n">
-        <v>6.640327216049818</v>
+        <v>6.73672376444478</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.602369236142961</v>
+        <v>-6.72396861493687</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.604767637182194</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.69169048222367</v>
+        <v>-16.73849783396751</v>
       </c>
       <c r="F69" t="n">
-        <v>6.752437032515044</v>
+        <v>6.851263417322863</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.285664260311077</v>
+        <v>-6.411541520113537</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.545933018467951</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.52656427529362</v>
+        <v>-16.56314871367874</v>
       </c>
       <c r="F70" t="n">
-        <v>6.716321938789144</v>
+        <v>6.809364628473402</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.192030000795922</v>
+        <v>-6.332960512741613</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.471893575625813</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.61392593899852</v>
+        <v>-16.66045950635781</v>
       </c>
       <c r="F71" t="n">
-        <v>6.580622664191052</v>
+        <v>6.674432927953417</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.927417393131018</v>
+        <v>-6.082193572523812</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.386938131815226</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.58706573527169</v>
+        <v>-16.64178838913307</v>
       </c>
       <c r="F72" t="n">
-        <v>6.511110764557255</v>
+        <v>6.613491457357322</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.870176900733178</v>
+        <v>-6.019692508737171</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.290289342485658</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.53733475742143</v>
+        <v>-16.58146782240907</v>
       </c>
       <c r="F73" t="n">
-        <v>6.552036641040201</v>
+        <v>6.645817570761364</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.034804428962805</v>
+        <v>-6.200698209970962</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.183591336334391</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.641754166085</v>
+        <v>-16.66166709105394</v>
       </c>
       <c r="F74" t="n">
-        <v>6.436088954184446</v>
+        <v>6.518356272734024</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.70277730561001</v>
+        <v>-5.87068046844047</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.064408643479084</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.95215232305856</v>
+        <v>-16.98568602115873</v>
       </c>
       <c r="F75" t="n">
-        <v>6.219769956350927</v>
+        <v>6.315755828169068</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.737802150804589</v>
+        <v>-5.907465356107138</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.931585458563765</v>
       </c>
       <c r="E76" t="n">
-        <v>-17.01937616747864</v>
+        <v>-17.06065894146287</v>
       </c>
       <c r="F76" t="n">
-        <v>6.107909479235913</v>
+        <v>6.201499737689266</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.5864091641637</v>
+        <v>-5.775555061830906</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.782217045853686</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.16439877817194</v>
+        <v>-17.20071432117938</v>
       </c>
       <c r="F77" t="n">
-        <v>6.086270734842947</v>
+        <v>6.183605972556357</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.425340832933188</v>
+        <v>-5.63358808042943</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.614072919672044</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.60982641580283</v>
+        <v>-17.6493295912875</v>
       </c>
       <c r="F78" t="n">
-        <v>6.032462325265682</v>
+        <v>6.152614558026984</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.026544542798935</v>
+        <v>-5.232288618779316</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.426151435819098</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.70527938587247</v>
+        <v>-17.72962175106284</v>
       </c>
       <c r="F79" t="n">
-        <v>6.10457028754581</v>
+        <v>6.210427064228252</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.823225414224543</v>
+        <v>-5.028778818937115</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.218142491015809</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.14556378827936</v>
+        <v>-18.18862127175629</v>
       </c>
       <c r="F80" t="n">
-        <v>5.771169353263412</v>
+        <v>5.8805364368763</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.337942592614565</v>
+        <v>-4.514753525956545</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.993529502558007</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.98427291629863</v>
+        <v>-19.0421880916441</v>
       </c>
       <c r="F81" t="n">
-        <v>5.885625893024758</v>
+        <v>5.990407088196479</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.217140121939964</v>
+        <v>-4.40591934409215</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.754639618915509</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.72698150547914</v>
+        <v>-19.76970653648911</v>
       </c>
       <c r="F82" t="n">
-        <v>5.622010642760704</v>
+        <v>5.717356054679279</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.136652401889943</v>
+        <v>-4.339736858134723</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.5094181242014</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.4875789707857</v>
+        <v>-20.54619327411315</v>
       </c>
       <c r="F83" t="n">
-        <v>5.303736295724541</v>
+        <v>5.407485910447343</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.05093833349919</v>
+        <v>-4.252697868883036</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.263303527746486</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.6000284822904</v>
+        <v>-21.62611133392539</v>
       </c>
       <c r="F84" t="n">
-        <v>5.190868683194942</v>
+        <v>5.299238409406979</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.731167950361751</v>
+        <v>-3.944089088422764</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.027962352557165</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.65720777116462</v>
+        <v>-22.70007947238059</v>
       </c>
       <c r="F85" t="n">
-        <v>5.312472950995717</v>
+        <v>5.430097567206825</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.782786084862639</v>
+        <v>-3.988031482142596</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.811465334757984</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.473319909445</v>
+        <v>-23.50073257094779</v>
       </c>
       <c r="F86" t="n">
-        <v>4.942678249596005</v>
+        <v>5.047434999733391</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.72662117397552</v>
+        <v>-3.927437131034051</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.626398394059249</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.18283703100603</v>
+        <v>-24.20788341318523</v>
       </c>
       <c r="F87" t="n">
-        <v>4.684333348734485</v>
+        <v>4.800222367507837</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.724694905269956</v>
+        <v>-3.946954046446776</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.480849023853251</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.51434338418971</v>
+        <v>-25.54408810196802</v>
       </c>
       <c r="F88" t="n">
-        <v>4.736753280361548</v>
+        <v>4.841138465977048</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.683265461079718</v>
+        <v>-3.913215010058196</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.383775724970265</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.94410410837779</v>
+        <v>-26.96152363984461</v>
       </c>
       <c r="F89" t="n">
-        <v>4.211698387889216</v>
+        <v>4.319359208105551</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.675091041598237</v>
+        <v>-3.900469369156149</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.338816212048312</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.2997670444909</v>
+        <v>-28.31112176293931</v>
       </c>
       <c r="F90" t="n">
-        <v>4.388123089688709</v>
+        <v>4.49650259391448</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.670216701751922</v>
+        <v>-3.905852165716622</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.348148473728895</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.13984011448824</v>
+        <v>-30.14525224508992</v>
       </c>
       <c r="F91" t="n">
-        <v>3.895721874080504</v>
+        <v>4.000493291238491</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.022088303977525</v>
+        <v>-4.253338328782602</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.407942901267471</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.85064050941406</v>
+        <v>-31.86510219172639</v>
       </c>
       <c r="F92" t="n">
-        <v>3.576943959337048</v>
+        <v>3.675110328217833</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.068255195821803</v>
+        <v>-4.2907245642939</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.513463444318335</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.51309107092952</v>
+        <v>-33.54682521831123</v>
       </c>
       <c r="F93" t="n">
-        <v>3.274250877185743</v>
+        <v>3.369816294413329</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.458363720753547</v>
+        <v>-4.669358590108995</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.654719839136094</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.423343389998</v>
+        <v>-35.4523425342291</v>
       </c>
       <c r="F94" t="n">
-        <v>2.822609311827007</v>
+        <v>2.914957762536163</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.486436398183373</v>
+        <v>-4.709316443232292</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.822716868719241</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.63563855330447</v>
+        <v>-37.65830643364293</v>
       </c>
       <c r="F95" t="n">
-        <v>2.219677428971588</v>
+        <v>2.298400217542652</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.700266891521632</v>
+        <v>-4.934015198835703</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.010067425280175</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.57248706972897</v>
+        <v>-39.59981661811502</v>
       </c>
       <c r="F96" t="n">
-        <v>2.026752328996257</v>
+        <v>2.109513437239393</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.000735475548491</v>
+        <v>-5.229599665002514</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.206994522209893</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.70201868028888</v>
+        <v>-41.75114097678421</v>
       </c>
       <c r="F97" t="n">
-        <v>1.395205088948785</v>
+        <v>1.44657388409946</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.440144745726205</v>
+        <v>-5.671091652105534</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.419100691470597</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.64105258278288</v>
+        <v>-43.69889442302536</v>
       </c>
       <c r="F98" t="n">
-        <v>1.019675582494181</v>
+        <v>1.092037773131389</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.718783914092289</v>
+        <v>-5.954204261754845</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.635570155452911</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.16045315693806</v>
+        <v>-46.22896769917101</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8429477622689391</v>
+        <v>0.9106898414169127</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.064676260919655</v>
+        <v>-6.313394707260219</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.880995811016816</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.7146292369376</v>
+        <v>-48.78640963575765</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.04273983273450597</v>
+        <v>0.02012790656715335</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.382227034939515</v>
+        <v>-6.616439797905942</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.126346242974583</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.63357787697061</v>
+        <v>-50.70376079279689</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.19391770307325</v>
+        <v>-0.1311672999363966</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.861330151869712</v>
+        <v>-7.100309696531381</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.428529053722073</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.95381375613655</v>
+        <v>-53.04038095622558</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6181563849429277</v>
+        <v>-0.5628714952918534</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.174011475050125</v>
+        <v>-7.412003440324678</v>
       </c>
     </row>
   </sheetData>
